--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/141.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/141.xlsx
@@ -479,13 +479,13 @@
         <v>-15.27361159428835</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.72636614107728</v>
+        <v>-9.512084420466749</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.052748059747201</v>
+        <v>-3.028893883969576</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.500802397658387</v>
+        <v>-6.242085401203038</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.1601921580533</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.01608571066184</v>
+        <v>-9.797457345507853</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.012122644029325</v>
+        <v>-3.011219275133246</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.467115902446626</v>
+        <v>-6.206068476085449</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.09050597190356</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.83985340546324</v>
+        <v>-10.62165708630303</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.827102220270052</v>
+        <v>-2.840901507465232</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.349128069236991</v>
+        <v>-6.091851226094231</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.03634182000482</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.56883282769055</v>
+        <v>-11.3542630764175</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.788833419063687</v>
+        <v>-2.787327804236889</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.589149257234355</v>
+        <v>-6.325823770178718</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.96218555013261</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.41827452836458</v>
+        <v>-12.19079576648959</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.596455121107364</v>
+        <v>-2.608277470573443</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.103830683194411</v>
+        <v>-5.84942105437399</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.83975528394071</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.1045861356307</v>
+        <v>-12.87980438814111</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.537408835291179</v>
+        <v>-2.554232444442798</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.194979295578507</v>
+        <v>-5.945531649535101</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.61469829774901</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.66847161902384</v>
+        <v>-13.43211627582216</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.439844994514637</v>
+        <v>-2.44897032959532</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.688595206266227</v>
+        <v>-5.451218663442892</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.27771095396553</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.67342369285189</v>
+        <v>-14.43391310466536</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.249901864886875</v>
+        <v>-2.244795866778602</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.493087847930732</v>
+        <v>-5.27371322151477</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.80022655506161</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.42280092290661</v>
+        <v>-15.18664196424755</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.221517752326013</v>
+        <v>-2.220562014218567</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.118543248234633</v>
+        <v>-4.896785822701476</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.19131729311944</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.12211318689457</v>
+        <v>-15.87493050924278</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.014659367426741</v>
+        <v>-2.017736058594547</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.884609981058671</v>
+        <v>-4.663598816787493</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.48199040903064</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.77248642286015</v>
+        <v>-16.5263511294357</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.122945804230658</v>
+        <v>-2.098777413184831</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.359176591111678</v>
+        <v>-4.133386736303271</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.70161251545208</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.74940787630407</v>
+        <v>-17.50731810445771</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.911439651822573</v>
+        <v>-1.893607935352142</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.69064433110462</v>
+        <v>-3.478378825131716</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.92945440811542</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.34085265717904</v>
+        <v>-18.10148608432376</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.653180885966684</v>
+        <v>-1.629824217697045</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.413611202973697</v>
+        <v>-3.181353750561476</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.2124335710273</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.26706762171695</v>
+        <v>-19.01873282141509</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.514441752752913</v>
+        <v>-1.486659886122771</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.821132130174225</v>
+        <v>-2.589660215932508</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.612743408672392</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.18609491199475</v>
+        <v>-19.93072954506689</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.344647677198568</v>
+        <v>-1.320963701357885</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.397949625421114</v>
+        <v>-2.181625505567274</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.169320871196588</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.98332450893598</v>
+        <v>-20.72874468017861</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.164327390159475</v>
+        <v>-1.126032404347426</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.904605469739192</v>
+        <v>-1.679339307044453</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.883907307532308</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.94373656849648</v>
+        <v>-21.69003392402951</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.064040350391853</v>
+        <v>-1.030825178082394</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.532181823103452</v>
+        <v>-1.314600842176807</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.770712706845222</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.78816391718213</v>
+        <v>-22.53173807372408</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9660968328329004</v>
+        <v>-0.9216091877767152</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.182211475841273</v>
+        <v>-0.955217129171426</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.791697823472557</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.47664884671997</v>
+        <v>-23.20694740818042</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7499952821273699</v>
+        <v>-0.6939995028733075</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8449275700327257</v>
+        <v>-0.6161133932678792</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.92447031047486</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.0890674967474</v>
+        <v>-23.82313664142626</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4775968292024173</v>
+        <v>-0.4134445452779596</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.482820658036266</v>
+        <v>-0.2612465247428941</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.128962401451959</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.76008729429438</v>
+        <v>-24.48622250345116</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3231993017899418</v>
+        <v>-0.2386361177352331</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3021206942147628</v>
+        <v>-0.1177417932947346</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.357309084867547</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.18279847614519</v>
+        <v>-24.92142374221297</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2578425260040453</v>
+        <v>-0.1686970359547325</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1024237989699151</v>
+        <v>0.09273006718885367</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.589299718897617</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.62059199086967</v>
+        <v>-25.34469789308597</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2904554523827849</v>
+        <v>-0.2000923781691916</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07461574773408894</v>
+        <v>0.1070137695891768</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.781447557032301</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.8752241888384</v>
+        <v>-25.6044753660715</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01268372761454048</v>
+        <v>0.1014888177899684</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.06719241202283026</v>
+        <v>0.1068566619550761</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.925708382077531</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.88441498543329</v>
+        <v>-25.60770916487341</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01831884551466685</v>
+        <v>0.08046257942615634</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2305843514875716</v>
+        <v>-0.05330147870775891</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.00670875046684</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.89652536556189</v>
+        <v>-25.60414805850046</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2138785730615291</v>
+        <v>-0.1176894240833677</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2057351606939755</v>
+        <v>-0.03531265460322729</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.01594961253995</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.94702237762242</v>
+        <v>-25.66663761996402</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01697033832196906</v>
+        <v>0.06282724749835132</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5033362965892507</v>
+        <v>-0.3279125308129632</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.965947718294123</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.03904817429692</v>
+        <v>-25.74318831467959</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07258644079362141</v>
+        <v>0.007407529569324875</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5693345952143919</v>
+        <v>-0.4001558578936076</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.850728803572224</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.78336859210085</v>
+        <v>-25.50075814295935</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1744183722965668</v>
+        <v>-0.09875795417423182</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7160207562530908</v>
+        <v>-0.5579704763477736</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.69345203516432</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.3551848276622</v>
+        <v>-25.06047709069495</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1833211382289405</v>
+        <v>-0.1070061049645192</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.234973456293429</v>
+        <v>-1.071987378216781</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.503678153613759</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.42394560218694</v>
+        <v>-25.11793920786728</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1042174444592316</v>
+        <v>-0.03725031542380274</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.392696428627703</v>
+        <v>-1.213436618118789</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.295579022427978</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.00563343409095</v>
+        <v>-24.70961646683953</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1531041032702367</v>
+        <v>-0.08904346546567107</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.893332996992466</v>
+        <v>-1.710394249385027</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.092374651519421</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.3756318213471</v>
+        <v>-24.09021961939747</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2067563603156302</v>
+        <v>-0.1576995015676826</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.929507029744155</v>
+        <v>-1.757199232044198</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.892901362078669</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.01982230701751</v>
+        <v>-23.73767008847547</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4057069942984995</v>
+        <v>-0.3557467666544728</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.063323457089437</v>
+        <v>-1.876705772383474</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.719199837266393</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.23222864496779</v>
+        <v>-22.96263194485097</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5048680960217328</v>
+        <v>-0.4618075119752957</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.235487239458135</v>
+        <v>-2.053923183649078</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.56988098564937</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.43997412310642</v>
+        <v>-22.17261620677553</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.452760730711663</v>
+        <v>-0.4049476407336794</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.39564538012097</v>
+        <v>-2.20609501957846</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.44809519212569</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.06207789388284</v>
+        <v>-21.78724427262933</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5118593857392144</v>
+        <v>-0.465853033553389</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.667219017966894</v>
+        <v>-2.47392425881165</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.360787592458623</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.40763295173348</v>
+        <v>-21.13770894404561</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4444602107100086</v>
+        <v>-0.3839868638840759</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.851702657309656</v>
+        <v>-2.650225208878333</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.292545161500074</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.01821549600918</v>
+        <v>-20.7587653305947</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6388154463954321</v>
+        <v>-0.5980198307406137</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.047471861701986</v>
+        <v>-2.854190194849584</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.254203496877777</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.39901503310974</v>
+        <v>-20.15884982978112</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.425227617835513</v>
+        <v>-0.3686688695592564</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.954215388560371</v>
+        <v>-2.751166863788041</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.232641445083653</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.89140026733034</v>
+        <v>-19.63540646986607</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1804146469980773</v>
+        <v>-0.127089697523727</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.050548552869791</v>
+        <v>-2.827494989355304</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.227726437338642</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.97561986815729</v>
+        <v>-18.72631623744514</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1594145932399487</v>
+        <v>-0.1108552419999867</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.023382024473209</v>
+        <v>-2.786869573637428</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.24178036397622</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.643939467965</v>
+        <v>-18.39838023586558</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1104886575204184</v>
+        <v>-0.06525475120225481</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.250546571079999</v>
+        <v>-3.005327738854469</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.261827068934947</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.07964812318376</v>
+        <v>-17.84506024086572</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1368434631408129</v>
+        <v>-0.0896588036992322</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.317120931030176</v>
+        <v>-3.066730639182165</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.302478658256499</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.61916564763457</v>
+        <v>-17.39397803875688</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.06372295176977286</v>
+        <v>-0.02064927542049409</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.144525102667701</v>
+        <v>-2.917452202180804</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.353687300662827</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.93648060825561</v>
+        <v>-16.719475688654</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1121906568898428</v>
+        <v>-0.06009638388261473</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.518336533404664</v>
+        <v>-3.279467468057371</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.42422190459637</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.27771520616848</v>
+        <v>-16.06233373211924</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.07080588760714665</v>
+        <v>-0.02825590337153694</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.38580315173787</v>
+        <v>-3.165407325700254</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.519276969545368</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.64619488629498</v>
+        <v>-15.45338454234488</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02220183178047533</v>
+        <v>0.06937339891921436</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.674344414066671</v>
+        <v>-3.436260886889883</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.63066778467573</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.93326662735163</v>
+        <v>-14.75276304807275</v>
       </c>
       <c r="F50" t="n">
-        <v>0.103609770850328</v>
+        <v>0.1642795022188866</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.633326229263544</v>
+        <v>-3.392833718363878</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.774376991195691</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.11628074542224</v>
+        <v>-13.93772791926678</v>
       </c>
       <c r="F51" t="n">
-        <v>0.131522560508888</v>
+        <v>0.1884348009618712</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.795330384627062</v>
+        <v>-3.53530415788754</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.938151700358924</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.53191890038464</v>
+        <v>-13.34828626072659</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1996679968000722</v>
+        <v>0.2569075448240986</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.716540906125554</v>
+        <v>-3.483956146142291</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.131698932927375</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.86616220858003</v>
+        <v>-12.69465304135341</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2690833864669038</v>
+        <v>0.3208372596002469</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.769237425063502</v>
+        <v>-3.531153897886713</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.355748509703563</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.48298978131123</v>
+        <v>-12.31361465944782</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1380556196269093</v>
+        <v>0.2019198728888491</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.959102000874213</v>
+        <v>-3.70194298845703</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.601672804004133</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.9061167334991</v>
+        <v>-11.76585889315568</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.02769293434934271</v>
+        <v>0.01641503392443241</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.381629890485239</v>
+        <v>-4.141412317945249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.883099235500687</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.47771039991214</v>
+        <v>-11.34045069691948</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.03236688646383892</v>
+        <v>0.02908838307522324</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.495820955870774</v>
+        <v>-4.245234279480137</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.18159003426392</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.70374582512066</v>
+        <v>-10.57066256673451</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.07908022300311753</v>
+        <v>-0.02193232109898324</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.910794586742123</v>
+        <v>-4.646146777099473</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.50678438556177</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.44412545976923</v>
+        <v>-10.30635515696575</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2442265310486502</v>
+        <v>-0.1898411050441201</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.924711704662878</v>
+        <v>-4.668665537987241</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.85226663752067</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.833264793779973</v>
+        <v>-9.707971455584655</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1913990890822855</v>
+        <v>-0.1319338495751657</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.231490544850203</v>
+        <v>-4.968728026816761</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.20754054591834</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.508392391065383</v>
+        <v>-9.367728689333878</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2964517270842955</v>
+        <v>-0.2411367475780028</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.111722158454093</v>
+        <v>-4.858464652283744</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.58195715190066</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.946601676126917</v>
+        <v>-8.814513432756742</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3228981788245821</v>
+        <v>-0.2669023995705197</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.484355281935301</v>
+        <v>-5.234017359298656</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.95182907404764</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.470447714076181</v>
+        <v>-8.336395625279749</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2753076579949079</v>
+        <v>-0.2232002926848381</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.509544872602781</v>
+        <v>-5.253223767567468</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.32599492884507</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.020452173103216</v>
+        <v>-7.888547221972825</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2897877449378569</v>
+        <v>-0.2396965942654129</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.491464402378358</v>
+        <v>-5.234776712863476</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.68983024992622</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.671961256062151</v>
+        <v>-7.533562522722264</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4418679347473469</v>
+        <v>-0.395311705842169</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.669676828659933</v>
+        <v>-5.421368212963756</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.02952517807649</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.318246510187238</v>
+        <v>-7.180973714891739</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3693889462155514</v>
+        <v>-0.3291562995829271</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.917736690602116</v>
+        <v>-5.679535332699753</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.34560754202782</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.064962819411205</v>
+        <v>-6.930963099826139</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4886336404979924</v>
+        <v>-0.4450231797322028</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.871167369394097</v>
+        <v>-5.641043962345078</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.60872077008147</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.899476111491787</v>
+        <v>-6.765764422569239</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5844692972994272</v>
+        <v>-0.5381487298454004</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.957288537486972</v>
+        <v>-5.731537959587088</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.82393629206072</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.619327015284533</v>
+        <v>-6.489281171157669</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5329903625257603</v>
+        <v>-0.4846273958284242</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.922751042590498</v>
+        <v>-5.707042260970219</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.97272605167729</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.506707026240005</v>
+        <v>-6.368413031322853</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8278813917327983</v>
+        <v>-0.7741374885675127</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.946408833825497</v>
+        <v>-5.742705693911081</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.04759793583709</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.31923834184933</v>
+        <v>-6.177592717404695</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7337739189064713</v>
+        <v>-0.689338643061653</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.777334834927446</v>
+        <v>-5.579902908074217</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.05544367667301</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.238511202527247</v>
+        <v>-6.08713799707121</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8036213545670798</v>
+        <v>-0.7577459254096718</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.684693700019393</v>
+        <v>-5.495418277836559</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.98144154033106</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.252114105179801</v>
+        <v>-6.094234025211426</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9347538598298082</v>
+        <v>-0.883864078684019</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.496662046606523</v>
+        <v>-5.324092402849732</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.8505877977654</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.308960884118575</v>
+        <v>-6.149745389260344</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9891785627428634</v>
+        <v>-0.9349764289781175</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.323738910673005</v>
+        <v>-5.145487207482905</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.66283586178734</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.526240742079861</v>
+        <v>-6.367758416180767</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8681664075767894</v>
+        <v>-0.8136762431495255</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.174381919854594</v>
+        <v>-5.002898937233666</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.43509345471789</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.701114631136796</v>
+        <v>-6.548288180065327</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.214484002346127</v>
+        <v>-1.153028732807065</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.005163905625285</v>
+        <v>-4.83408678439245</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.19029492793475</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.170460595709834</v>
+        <v>-7.021954604576135</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.149886580125051</v>
+        <v>-1.084974942635773</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.777462574601985</v>
+        <v>-4.62140232472861</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.92652572326279</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.598578898634276</v>
+        <v>-7.461122811098994</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.21731193975994</v>
+        <v>-1.148014380818684</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.71227599875303</v>
+        <v>-4.549355382190591</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.67799130649581</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.199882183549072</v>
+        <v>-8.060828835067099</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.267913690243211</v>
+        <v>-1.205790713259221</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.352682808902182</v>
+        <v>-4.18139621082388</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.44241760767919</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.611281615744629</v>
+        <v>-8.473707697483771</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.284318345703894</v>
+        <v>-1.209024512061128</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.212136937896253</v>
+        <v>-4.034526757545398</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.2364493605893</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.059719172679431</v>
+        <v>-8.926923944955803</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.401978871342486</v>
+        <v>-1.341413878396662</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.856785654166124</v>
+        <v>-3.675797659682103</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.0727630709214</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.945361090710833</v>
+        <v>-9.82094493680591</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.38440900092889</v>
+        <v>-1.314116426971663</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.864889789625153</v>
+        <v>-3.676661751669657</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.94034385769026</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.69586425880994</v>
+        <v>-10.58443566932401</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.468631785109714</v>
+        <v>-1.395969504338134</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.660021434757823</v>
+        <v>-3.476624456550924</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.86387160503438</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.48334009013408</v>
+        <v>-11.38125940487714</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.60233038172942</v>
+        <v>-1.526748517424136</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.331103510465139</v>
+        <v>-3.140021350490147</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.82718617615757</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.67255323415658</v>
+        <v>-12.56575931987662</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.669271326159166</v>
+        <v>-1.596438845450644</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.184181687975289</v>
+        <v>-2.994696788946988</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.841522928855</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.54930547855845</v>
+        <v>-13.45061569973752</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.732821364152904</v>
+        <v>-1.666063711962943</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.852056149486382</v>
+        <v>-2.664508911278656</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.90806343400537</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.66796420256689</v>
+        <v>-14.58548269466402</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.918300018511637</v>
+        <v>-1.852498104429122</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.598130935871105</v>
+        <v>-2.407664114129674</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.01356391144945</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.72202550435426</v>
+        <v>-15.64746483967063</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.949629899211888</v>
+        <v>-1.885660907527214</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.169187817867634</v>
+        <v>-1.983813901931635</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.17834495499528</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.11495488059402</v>
+        <v>-17.04365419931798</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.894472027339696</v>
+        <v>-1.846370906699194</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.895087365573257</v>
+        <v>-1.69842788458769</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.38292496673578</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.74066540135967</v>
+        <v>-18.67932796254619</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.116242545175694</v>
+        <v>-2.066360871348718</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.714688524717114</v>
+        <v>-1.517911213005971</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.64212406821123</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.31742380180011</v>
+        <v>-20.26036754601587</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.327971266732088</v>
+        <v>-2.285277267165219</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.431017599045435</v>
+        <v>-1.233716595220623</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.95115719116324</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.01632029545101</v>
+        <v>-21.98766124453047</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.485589500643628</v>
+        <v>-2.456171096158269</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.568997378694386</v>
+        <v>-1.374288650832236</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.29429913325807</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.66352837748277</v>
+        <v>-23.6476605064386</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.59581359826812</v>
+        <v>-2.558932581162977</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.368095991588099</v>
+        <v>-1.172902848520805</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.67675524958729</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.76573326017304</v>
+        <v>-25.74995703524877</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.707726602959194</v>
+        <v>-2.686647995384015</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.340824724768784</v>
+        <v>-1.148551165235195</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.05881257698359</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.97926199392651</v>
+        <v>-27.96911545922417</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.555803520783805</v>
+        <v>-2.540132034282259</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.43591412030824</v>
+        <v>-1.253328864877529</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.43650736554013</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.24042052541818</v>
+        <v>-30.2381031878152</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.995953650019794</v>
+        <v>-2.990350144403535</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.792312788265707</v>
+        <v>-1.603744350436327</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.77525151982242</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.46873046907996</v>
+        <v>-32.46137259488291</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.009373260432563</v>
+        <v>-3.019532887437742</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.051213076960841</v>
+        <v>-1.856700733641316</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.04859142257967</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70884966990497</v>
+        <v>-34.69486709047001</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.288540433926688</v>
+        <v>-3.316335392859672</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.229857549236193</v>
+        <v>-2.044719294751344</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.23979246895335</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21205869633447</v>
+        <v>-37.20328685343051</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.539951925396353</v>
+        <v>-3.565364085212144</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.6778892447829</v>
+        <v>-2.481020286951865</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.32295699335794</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.66809615562523</v>
+        <v>-39.679944689697</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.476375702796931</v>
+        <v>-3.497454310372111</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.154789468095614</v>
+        <v>-2.953757157960911</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-15.28543773613856</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.23786644970207</v>
+        <v>-42.24742383077653</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.654064436964838</v>
+        <v>-3.674868106180341</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.446145575535386</v>
+        <v>-3.255848953730898</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-15.14618603011159</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53595836751024</v>
+        <v>-44.54215102675438</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.861800006154505</v>
+        <v>-3.889084365276662</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.965255383209825</v>
+        <v>-3.794165169674149</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.85183813075829</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.85565258500726</v>
+        <v>-46.86069312160133</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.990667543025615</v>
+        <v>-4.022102162148599</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.271968761882941</v>
+        <v>-4.09863976456133</v>
       </c>
     </row>
   </sheetData>
